--- a/burndown chart/burndown.xlsx
+++ b/burndown chart/burndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamzaas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Studium\8.Semester\seminar\csseminar\burndown chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9E5B4-DAEC-4D56-8767-E6C498AF3F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B18272-E9E1-4FDC-B04E-43C18F4719E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Task*</t>
   </si>
@@ -49,54 +49,6 @@
   </si>
   <si>
     <t>Time (left)</t>
-  </si>
-  <si>
-    <t>Learning Objective 1</t>
-  </si>
-  <si>
-    <t>Screenshot of completed codecademy Python course</t>
-  </si>
-  <si>
-    <t>Learning Objective 2</t>
-  </si>
-  <si>
-    <t>Completed Django tutorial</t>
-  </si>
-  <si>
-    <t>Minimal Prototype</t>
-  </si>
-  <si>
-    <t>Load URL in web browser and see page with title "My New Web App"</t>
-  </si>
-  <si>
-    <t>Feature 1</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Feature 2</t>
-  </si>
-  <si>
-    <t>Feature 3</t>
-  </si>
-  <si>
-    <t>Feature 4</t>
-  </si>
-  <si>
-    <t>Feature 5</t>
-  </si>
-  <si>
-    <t>Feature 6</t>
-  </si>
-  <si>
-    <t>Feature 7</t>
-  </si>
-  <si>
-    <t>Feature 8</t>
-  </si>
-  <si>
-    <t>Feature 9</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -136,6 +88,24 @@
   </si>
   <si>
     <t>* DO NOT EDIT TASKS OR "HOW TO TEST" HERE. Edit in "Chart" to maintain corresponding columns.</t>
+  </si>
+  <si>
+    <t>Create presentation of paper</t>
+  </si>
+  <si>
+    <t>Hold the presentation</t>
+  </si>
+  <si>
+    <t>Submit and wait for grading</t>
+  </si>
+  <si>
+    <t>Writing Assignment 2: Background &amp; Related Work</t>
+  </si>
+  <si>
+    <t>Writing Assignment 1: Proposal</t>
+  </si>
+  <si>
+    <t>Practice presentation</t>
   </si>
 </sst>
 </file>
@@ -413,18 +383,6 @@
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -550,6 +508,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,40 +1607,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>33.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>33.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>25.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>-6.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>-14.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>-22.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>-22.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>-30.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>-38.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,40 +1757,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,7 +1887,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="9868509"/>
@@ -2012,7 +1982,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="6613296"/>
@@ -2049,7 +2019,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2414,13 +2384,13 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -2437,1047 +2407,969 @@
     <col min="24" max="1025" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:23" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7">
-        <v>0</v>
-      </c>
-      <c r="G1" s="8">
+      <c r="F1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
         <v>43877</v>
       </c>
-      <c r="H1" s="8">
-        <f t="shared" ref="H1:W1" si="0">G1+7</f>
+      <c r="H1" s="4">
+        <f t="shared" ref="H1:Q1" si="0">G1+7</f>
         <v>43884</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="4">
         <f t="shared" si="0"/>
         <v>43891</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="5">
         <f>I1+7</f>
         <v>43898</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="5">
         <f>J1+7</f>
         <v>43905</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="5">
         <f>K1+7</f>
         <v>43912</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="5">
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="5">
         <f>M1+7</f>
         <v>43926</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="5">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="5">
         <f t="shared" si="0"/>
         <v>43940</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="5">
         <f t="shared" si="0"/>
         <v>43947</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
     </row>
     <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E34" si="1">IF(D3&gt;C3,$D3-(SUM($G3:$W3)),$C3-(SUM($G3:$W3)))</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="19">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="H6" s="22"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="19">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="H7" s="22"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="12">
+        <f t="shared" ref="D3:D34" si="2">IF(C8&lt;SUM(G8:W8),SUM(G8:W8),C8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="H8" s="22"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="H9" s="22"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="H10" s="22"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="H14" s="22"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="H15" s="22"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="H16" s="22"/>
+      <c r="T16" s="21"/>
+      <c r="W16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="27">
+        <f>SUM(C3:C34)</f>
+        <v>33.25</v>
+      </c>
+      <c r="D35" s="28">
+        <f>SUM(D3:D34)</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="28">
+        <f>SUM(E3:E34)</f>
+        <v>33.25</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30">
+        <f t="shared" ref="G35:Q35" si="3">SUM(G3:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16">
-        <f t="shared" ref="D3:D34" si="1">IF(C3&lt;SUM(G3:W3),SUM(G3:W3),C3)</f>
-        <v>6</v>
-      </c>
-      <c r="E3" s="17">
-        <f t="shared" ref="E3:E34" si="2">IF(D3&gt;C3,$D3-(SUM($G3:$W3)),$C3-(SUM($G3:$W3)))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="H3" s="19">
-        <v>5</v>
-      </c>
-      <c r="I3" s="20">
-        <v>1</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="32">
+        <f>C35-SUM(G36:W36)</f>
+        <v>-38.75</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="37">
+        <v>8</v>
+      </c>
+      <c r="I36" s="37">
+        <v>8</v>
+      </c>
+      <c r="J36" s="37">
+        <v>8</v>
+      </c>
+      <c r="K36" s="37">
+        <v>8</v>
+      </c>
+      <c r="L36" s="37">
+        <v>8</v>
+      </c>
+      <c r="M36" s="37">
+        <v>8</v>
+      </c>
+      <c r="N36" s="37">
+        <v>8</v>
+      </c>
+      <c r="O36" s="37">
+        <v>0</v>
+      </c>
+      <c r="P36" s="37">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="37">
+        <v>8</v>
+      </c>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+    </row>
+    <row r="37" spans="1:23" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23">
-        <v>4</v>
-      </c>
-      <c r="D4" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E4" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="H4" s="24">
+      <c r="E37" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="39">
+        <f>C35</f>
+        <v>33.25</v>
+      </c>
+      <c r="G37" s="41">
+        <f t="shared" ref="G37:Q37" si="4">F37-G36</f>
+        <v>33.25</v>
+      </c>
+      <c r="H37" s="41">
+        <f t="shared" si="4"/>
+        <v>25.25</v>
+      </c>
+      <c r="I37" s="41">
+        <f t="shared" si="4"/>
+        <v>17.25</v>
+      </c>
+      <c r="J37" s="41">
+        <f t="shared" si="4"/>
+        <v>9.25</v>
+      </c>
+      <c r="K37" s="41">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="L37" s="41">
+        <f t="shared" si="4"/>
+        <v>-6.75</v>
+      </c>
+      <c r="M37" s="41">
+        <f t="shared" si="4"/>
+        <v>-14.75</v>
+      </c>
+      <c r="N37" s="41">
+        <f t="shared" si="4"/>
+        <v>-22.75</v>
+      </c>
+      <c r="O37" s="41">
+        <f t="shared" si="4"/>
+        <v>-22.75</v>
+      </c>
+      <c r="P37" s="41">
+        <f t="shared" si="4"/>
+        <v>-30.75</v>
+      </c>
+      <c r="Q37" s="41">
+        <f t="shared" si="4"/>
+        <v>-38.75</v>
+      </c>
+      <c r="R37" s="41"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="39">
+        <f>D35</f>
         <v>3</v>
       </c>
-      <c r="I4" s="25">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="23">
-        <v>7</v>
-      </c>
-      <c r="D5" s="16">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E5" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="H5" s="24">
-        <v>8</v>
-      </c>
-      <c r="I5" s="25">
-        <v>6</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="G38" s="39">
+        <f>$D$35-SUM(G$3:G$34)</f>
+        <v>3</v>
+      </c>
+      <c r="H38" s="39">
+        <f t="shared" ref="H38:Q38" si="5">G38-SUM(H3:H34)</f>
+        <v>3</v>
+      </c>
+      <c r="I38" s="39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J38" s="39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K38" s="39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L38" s="39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M38" s="39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N38" s="39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O38" s="39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="P38" s="39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q38" s="39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23">
-        <v>8</v>
-      </c>
-      <c r="D6" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E6" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="H6" s="26"/>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+    </row>
+    <row r="41" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="H7" s="26"/>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23">
-        <v>12</v>
-      </c>
-      <c r="D8" s="16">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="E8" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="H8" s="26"/>
-      <c r="L8">
-        <v>12</v>
-      </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23">
-        <v>7</v>
-      </c>
-      <c r="D9" s="16">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E9" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="H9" s="26"/>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23">
-        <v>4</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E10" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="H10" s="26"/>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23">
-        <v>4</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E11" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="H11" s="26"/>
-      <c r="N11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23">
-        <v>15</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="E12" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="H12" s="26"/>
-      <c r="P12">
-        <v>9</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23">
-        <v>8</v>
-      </c>
-      <c r="D13" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E13" s="17">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="H13" s="26"/>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23">
-        <v>7</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E14" s="17">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="H14" s="26"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="H15" s="26"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="H16" s="26"/>
-      <c r="T16" s="25"/>
-      <c r="W16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31">
-        <f>SUM(C3:C34)</f>
-        <v>88</v>
-      </c>
-      <c r="D35" s="32">
-        <f>SUM(D3:D34)</f>
-        <v>99</v>
-      </c>
-      <c r="E35" s="32">
-        <f>SUM(E3:E34)</f>
-        <v>12</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34">
-        <f t="shared" ref="G35:W35" si="3">SUM(G3:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="34">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="I35" s="34">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="J35" s="34">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K35" s="34">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L35" s="34">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="M35" s="34">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N35" s="34">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="O35" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="34">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="Q35" s="34">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36">
-        <f>C35-SUM(G36:W36)</f>
-        <v>16</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="40">
-        <v>0</v>
-      </c>
-      <c r="H36" s="41">
-        <v>8</v>
-      </c>
-      <c r="I36" s="41">
-        <v>8</v>
-      </c>
-      <c r="J36" s="41">
-        <v>8</v>
-      </c>
-      <c r="K36" s="41">
-        <v>8</v>
-      </c>
-      <c r="L36" s="41">
-        <v>8</v>
-      </c>
-      <c r="M36" s="41">
-        <v>8</v>
-      </c>
-      <c r="N36" s="41">
-        <v>8</v>
-      </c>
-      <c r="O36" s="41">
-        <v>0</v>
-      </c>
-      <c r="P36" s="41">
-        <v>8</v>
-      </c>
-      <c r="Q36" s="41">
-        <v>8</v>
-      </c>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-    </row>
-    <row r="37" spans="1:23" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="43">
-        <f>C35</f>
-        <v>88</v>
-      </c>
-      <c r="G37" s="45">
-        <f t="shared" ref="G37:W37" si="4">F37-G36</f>
-        <v>88</v>
-      </c>
-      <c r="H37" s="45">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="I37" s="45">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="J37" s="45">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="K37" s="45">
-        <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="L37" s="45">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="M37" s="45">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="N37" s="45">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="O37" s="45">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="P37" s="45">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="Q37" s="45">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="R37" s="45"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="43">
-        <f>D35</f>
-        <v>99</v>
-      </c>
-      <c r="G38" s="43">
-        <f>$D$35-SUM(G$3:G$34)</f>
-        <v>99</v>
-      </c>
-      <c r="H38" s="43">
-        <f t="shared" ref="H38:W38" si="5">G38-SUM(H3:H34)</f>
-        <v>83</v>
-      </c>
-      <c r="I38" s="43">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="J38" s="43">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="K38" s="43">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="L38" s="43">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="M38" s="43">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="N38" s="43">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="O38" s="43">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="P38" s="43">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="Q38" s="43">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-    </row>
-    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-    </row>
-    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-    </row>
-    <row r="41" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4019,8 +3911,8 @@
     <hyperlink ref="A40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId2"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4028,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4041,342 +3933,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>31</v>
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="A2" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>IF(ISBLANK(Chart!A3),"",Chart!A3)</f>
-        <v>Learning Objective 1</v>
-      </c>
-      <c r="B3" s="5" t="str">
+        <v>Create presentation of paper</v>
+      </c>
+      <c r="B3" s="1" t="str">
         <f>IF(ISBLANK(Chart!B3),"",Chart!B3)</f>
-        <v>Screenshot of completed codecademy Python course</v>
+        <v>Submit and wait for grading</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="1" t="str">
         <f>IF(ISBLANK(Chart!A4),"",Chart!A4)</f>
-        <v>Learning Objective 2</v>
-      </c>
-      <c r="B4" s="5" t="str">
+        <v>Practice presentation</v>
+      </c>
+      <c r="B4" s="1" t="str">
         <f>IF(ISBLANK(Chart!B4),"",Chart!B4)</f>
-        <v>Completed Django tutorial</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="1" t="str">
         <f>IF(ISBLANK(Chart!A5),"",Chart!A5)</f>
-        <v>Minimal Prototype</v>
-      </c>
-      <c r="B5" s="5" t="str">
+        <v>Hold the presentation</v>
+      </c>
+      <c r="B5" s="1" t="str">
         <f>IF(ISBLANK(Chart!B5),"",Chart!B5)</f>
-        <v>Load URL in web browser and see page with title "My New Web App"</v>
+        <v>Hold the presentation</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="str">
+      <c r="A6" s="1" t="str">
         <f>IF(ISBLANK(Chart!A6),"",Chart!A6)</f>
-        <v>Feature 1</v>
-      </c>
-      <c r="B6" s="5" t="str">
+        <v>Writing Assignment 1: Proposal</v>
+      </c>
+      <c r="B6" s="1" t="str">
         <f>IF(ISBLANK(Chart!B6),"",Chart!B6)</f>
-        <v>…</v>
+        <v>Submit and wait for grading</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="str">
+      <c r="A7" s="1" t="str">
         <f>IF(ISBLANK(Chart!A7),"",Chart!A7)</f>
-        <v>Feature 2</v>
-      </c>
-      <c r="B7" s="5" t="str">
+        <v>Writing Assignment 2: Background &amp; Related Work</v>
+      </c>
+      <c r="B7" s="1" t="str">
         <f>IF(ISBLANK(Chart!B7),"",Chart!B7)</f>
-        <v/>
+        <v>Submit and wait for grading</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="str">
+      <c r="A8" s="1" t="str">
         <f>IF(ISBLANK(Chart!A8),"",Chart!A8)</f>
-        <v>Feature 3</v>
-      </c>
-      <c r="B8" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B8" s="1" t="str">
         <f>IF(ISBLANK(Chart!B8),"",Chart!B8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="str">
+      <c r="A9" s="1" t="str">
         <f>IF(ISBLANK(Chart!A9),"",Chart!A9)</f>
-        <v>Feature 4</v>
-      </c>
-      <c r="B9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B9" s="1" t="str">
         <f>IF(ISBLANK(Chart!B9),"",Chart!B9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="str">
+      <c r="A10" s="1" t="str">
         <f>IF(ISBLANK(Chart!A10),"",Chart!A10)</f>
-        <v>Feature 5</v>
-      </c>
-      <c r="B10" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B10" s="1" t="str">
         <f>IF(ISBLANK(Chart!B10),"",Chart!B10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="str">
+      <c r="A11" s="1" t="str">
         <f>IF(ISBLANK(Chart!A11),"",Chart!A11)</f>
-        <v>Feature 6</v>
-      </c>
-      <c r="B11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B11" s="1" t="str">
         <f>IF(ISBLANK(Chart!B11),"",Chart!B11)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
+      <c r="A12" s="1" t="str">
         <f>IF(ISBLANK(Chart!A12),"",Chart!A12)</f>
-        <v>Feature 7</v>
-      </c>
-      <c r="B12" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B12" s="1" t="str">
         <f>IF(ISBLANK(Chart!B12),"",Chart!B12)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="str">
+      <c r="A13" s="1" t="str">
         <f>IF(ISBLANK(Chart!A13),"",Chart!A13)</f>
-        <v>Feature 8</v>
-      </c>
-      <c r="B13" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B13" s="1" t="str">
         <f>IF(ISBLANK(Chart!B13),"",Chart!B13)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="str">
+      <c r="A14" s="1" t="str">
         <f>IF(ISBLANK(Chart!A14),"",Chart!A14)</f>
-        <v>Feature 9</v>
-      </c>
-      <c r="B14" s="5" t="str">
+        <v/>
+      </c>
+      <c r="B14" s="1" t="str">
         <f>IF(ISBLANK(Chart!B14),"",Chart!B14)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+      <c r="A15" s="1" t="str">
         <f>IF(ISBLANK(Chart!A15),"",Chart!A15)</f>
         <v/>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="1" t="str">
         <f>IF(ISBLANK(Chart!B15),"",Chart!B15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="str">
+      <c r="A16" s="1" t="str">
         <f>IF(ISBLANK(Chart!A16),"",Chart!A16)</f>
         <v/>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="1" t="str">
         <f>IF(ISBLANK(Chart!B16),"",Chart!B16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
+      <c r="A17" s="1" t="str">
         <f>IF(ISBLANK(Chart!A17),"",Chart!A17)</f>
         <v/>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="1" t="str">
         <f>IF(ISBLANK(Chart!B17),"",Chart!B17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="str">
+      <c r="A18" s="1" t="str">
         <f>IF(ISBLANK(Chart!A18),"",Chart!A18)</f>
         <v/>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="1" t="str">
         <f>IF(ISBLANK(Chart!B18),"",Chart!B18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="str">
+      <c r="A19" s="1" t="str">
         <f>IF(ISBLANK(Chart!A19),"",Chart!A19)</f>
         <v/>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="1" t="str">
         <f>IF(ISBLANK(Chart!B19),"",Chart!B19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="str">
+      <c r="A20" s="1" t="str">
         <f>IF(ISBLANK(Chart!A20),"",Chart!A20)</f>
         <v/>
       </c>
-      <c r="B20" s="5" t="str">
+      <c r="B20" s="1" t="str">
         <f>IF(ISBLANK(Chart!B20),"",Chart!B20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="str">
+      <c r="A21" s="1" t="str">
         <f>IF(ISBLANK(Chart!A21),"",Chart!A21)</f>
         <v/>
       </c>
-      <c r="B21" s="5" t="str">
+      <c r="B21" s="1" t="str">
         <f>IF(ISBLANK(Chart!B21),"",Chart!B21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="str">
+      <c r="A22" s="1" t="str">
         <f>IF(ISBLANK(Chart!A22),"",Chart!A22)</f>
         <v/>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B22" s="1" t="str">
         <f>IF(ISBLANK(Chart!B22),"",Chart!B22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="str">
+      <c r="A23" s="1" t="str">
         <f>IF(ISBLANK(Chart!A23),"",Chart!A23)</f>
         <v/>
       </c>
-      <c r="B23" s="5" t="str">
+      <c r="B23" s="1" t="str">
         <f>IF(ISBLANK(Chart!B23),"",Chart!B23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="str">
+      <c r="A24" s="1" t="str">
         <f>IF(ISBLANK(Chart!A24),"",Chart!A24)</f>
         <v/>
       </c>
-      <c r="B24" s="5" t="str">
+      <c r="B24" s="1" t="str">
         <f>IF(ISBLANK(Chart!B24),"",Chart!B24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="str">
+      <c r="A25" s="1" t="str">
         <f>IF(ISBLANK(Chart!A25),"",Chart!A25)</f>
         <v/>
       </c>
-      <c r="B25" s="5" t="str">
+      <c r="B25" s="1" t="str">
         <f>IF(ISBLANK(Chart!B25),"",Chart!B25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="str">
+      <c r="A26" s="1" t="str">
         <f>IF(ISBLANK(Chart!A26),"",Chart!A26)</f>
         <v/>
       </c>
-      <c r="B26" s="5" t="str">
+      <c r="B26" s="1" t="str">
         <f>IF(ISBLANK(Chart!B26),"",Chart!B26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str">
+      <c r="A27" s="1" t="str">
         <f>IF(ISBLANK(Chart!A27),"",Chart!A27)</f>
         <v/>
       </c>
-      <c r="B27" s="5" t="str">
+      <c r="B27" s="1" t="str">
         <f>IF(ISBLANK(Chart!B27),"",Chart!B27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="str">
+      <c r="A28" s="1" t="str">
         <f>IF(ISBLANK(Chart!A28),"",Chart!A28)</f>
         <v/>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B28" s="1" t="str">
         <f>IF(ISBLANK(Chart!B28),"",Chart!B28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="str">
+      <c r="A29" s="1" t="str">
         <f>IF(ISBLANK(Chart!A29),"",Chart!A29)</f>
         <v/>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="1" t="str">
         <f>IF(ISBLANK(Chart!B29),"",Chart!B29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="str">
+      <c r="A30" s="1" t="str">
         <f>IF(ISBLANK(Chart!A30),"",Chart!A30)</f>
         <v/>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="1" t="str">
         <f>IF(ISBLANK(Chart!B30),"",Chart!B30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
+      <c r="A31" s="1" t="str">
         <f>IF(ISBLANK(Chart!A31),"",Chart!A31)</f>
         <v/>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="1" t="str">
         <f>IF(ISBLANK(Chart!B31),"",Chart!B31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="str">
+      <c r="A32" s="1" t="str">
         <f>IF(ISBLANK(Chart!A32),"",Chart!A32)</f>
         <v/>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="1" t="str">
         <f>IF(ISBLANK(Chart!B32),"",Chart!B32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="str">
+      <c r="A33" s="1" t="str">
         <f>IF(ISBLANK(Chart!A33),"",Chart!A33)</f>
         <v/>
       </c>
-      <c r="B33" s="5" t="str">
+      <c r="B33" s="1" t="str">
         <f>IF(ISBLANK(Chart!B33),"",Chart!B33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="str">
+      <c r="A34" s="1" t="str">
         <f>IF(ISBLANK(Chart!A34),"",Chart!A34)</f>
         <v/>
       </c>
-      <c r="B34" s="5" t="str">
+      <c r="B34" s="1" t="str">
         <f>IF(ISBLANK(Chart!B34),"",Chart!B34)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
-        <v>33</v>
+      <c r="A36" s="44" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/burndown chart/burndown.xlsx
+++ b/burndown chart/burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Studium\8.Semester\seminar\csseminar\burndown chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B18272-E9E1-4FDC-B04E-43C18F4719E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98868971-FCED-4DDB-84AE-E63F8988E634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1757,40 +1757,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,7 +2384,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2512,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="13">
         <f t="shared" ref="E3:E34" si="1">IF(D3&gt;C3,$D3-(SUM($G3:$W3)),$C3-(SUM($G3:$W3)))</f>
@@ -2545,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" si="1"/>
@@ -2628,7 +2628,7 @@
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="12">
-        <f t="shared" ref="D3:D34" si="2">IF(C8&lt;SUM(G8:W8),SUM(G8:W8),C8)</f>
+        <f t="shared" ref="D8:D34" si="2">IF(C8&lt;SUM(G8:W8),SUM(G8:W8),C8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="13">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="D35" s="28">
         <f>SUM(D3:D34)</f>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="E35" s="28">
         <f>SUM(E3:E34)</f>
@@ -3259,51 +3259,51 @@
       </c>
       <c r="F38" s="39">
         <f>D35</f>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="G38" s="39">
         <f>$D$35-SUM(G$3:G$34)</f>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="H38" s="39">
         <f t="shared" ref="H38:Q38" si="5">G38-SUM(H3:H34)</f>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="I38" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="J38" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="K38" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="L38" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="M38" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N38" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O38" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P38" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q38" s="39">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
@@ -3986,7 +3986,7 @@
         <v>Submit and wait for grading</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>IF(ISBLANK(Chart!A7),"",Chart!A7)</f>
         <v>Writing Assignment 2: Background &amp; Related Work</v>

--- a/burndown chart/burndown.xlsx
+++ b/burndown chart/burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Studium\8.Semester\seminar\csseminar\burndown chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98868971-FCED-4DDB-84AE-E63F8988E634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778D825-C716-4AA9-B786-A336623AD84E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,10 +102,10 @@
     <t>Writing Assignment 2: Background &amp; Related Work</t>
   </si>
   <si>
-    <t>Writing Assignment 1: Proposal</t>
+    <t>Practice presentation</t>
   </si>
   <si>
-    <t>Practice presentation</t>
+    <t>Writing Assignment 1: Ouline</t>
   </si>
 </sst>
 </file>
@@ -1607,40 +1607,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>33.25</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.25</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.25</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.25</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.25</c:v>
+                  <c:v>-4.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.25</c:v>
+                  <c:v>-12.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.75</c:v>
+                  <c:v>-20.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-14.75</c:v>
+                  <c:v>-28.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-22.75</c:v>
+                  <c:v>-36.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-22.75</c:v>
+                  <c:v>-36.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-30.75</c:v>
+                  <c:v>-44.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-38.75</c:v>
+                  <c:v>-52.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,40 +1757,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,7 +2384,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2538,14 +2538,14 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19">
         <v>2</v>
       </c>
       <c r="D4" s="12">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" si="1"/>
@@ -2581,20 +2581,20 @@
     </row>
     <row r="6" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6" s="14"/>
       <c r="H6" s="22"/>
@@ -2609,14 +2609,14 @@
         <v>20</v>
       </c>
       <c r="C7" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" s="14"/>
       <c r="H7" s="22"/>
@@ -3064,15 +3064,15 @@
       <c r="B35" s="26"/>
       <c r="C35" s="27">
         <f>SUM(C3:C34)</f>
-        <v>33.25</v>
+        <v>19.25</v>
       </c>
       <c r="D35" s="28">
         <f>SUM(D3:D34)</f>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="E35" s="28">
         <f>SUM(E3:E34)</f>
-        <v>33.25</v>
+        <v>19.25</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="30">
@@ -3133,7 +3133,7 @@
       <c r="B36" s="31"/>
       <c r="C36" s="32">
         <f>C35-SUM(G36:W36)</f>
-        <v>-38.75</v>
+        <v>-52.75</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="34"/>
@@ -3192,51 +3192,51 @@
       </c>
       <c r="F37" s="39">
         <f>C35</f>
-        <v>33.25</v>
+        <v>19.25</v>
       </c>
       <c r="G37" s="41">
         <f t="shared" ref="G37:Q37" si="4">F37-G36</f>
-        <v>33.25</v>
+        <v>19.25</v>
       </c>
       <c r="H37" s="41">
         <f t="shared" si="4"/>
-        <v>25.25</v>
+        <v>11.25</v>
       </c>
       <c r="I37" s="41">
         <f t="shared" si="4"/>
-        <v>17.25</v>
+        <v>3.25</v>
       </c>
       <c r="J37" s="41">
         <f t="shared" si="4"/>
-        <v>9.25</v>
+        <v>-4.75</v>
       </c>
       <c r="K37" s="41">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>-12.75</v>
       </c>
       <c r="L37" s="41">
         <f t="shared" si="4"/>
-        <v>-6.75</v>
+        <v>-20.75</v>
       </c>
       <c r="M37" s="41">
         <f t="shared" si="4"/>
-        <v>-14.75</v>
+        <v>-28.75</v>
       </c>
       <c r="N37" s="41">
         <f t="shared" si="4"/>
-        <v>-22.75</v>
+        <v>-36.75</v>
       </c>
       <c r="O37" s="41">
         <f t="shared" si="4"/>
-        <v>-22.75</v>
+        <v>-36.75</v>
       </c>
       <c r="P37" s="41">
         <f t="shared" si="4"/>
-        <v>-30.75</v>
+        <v>-44.75</v>
       </c>
       <c r="Q37" s="41">
         <f t="shared" si="4"/>
-        <v>-38.75</v>
+        <v>-52.75</v>
       </c>
       <c r="R37" s="41"/>
       <c r="S37" s="42"/>
@@ -3259,51 +3259,51 @@
       </c>
       <c r="F38" s="39">
         <f>D35</f>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="G38" s="39">
         <f>$D$35-SUM(G$3:G$34)</f>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="H38" s="39">
         <f t="shared" ref="H38:Q38" si="5">G38-SUM(H3:H34)</f>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="I38" s="39">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="J38" s="39">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="K38" s="39">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="L38" s="39">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="M38" s="39">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="N38" s="39">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="O38" s="39">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="P38" s="39">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q38" s="39">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
@@ -3979,7 +3979,7 @@
     <row r="6" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>IF(ISBLANK(Chart!A6),"",Chart!A6)</f>
-        <v>Writing Assignment 1: Proposal</v>
+        <v>Writing Assignment 1: Ouline</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>IF(ISBLANK(Chart!B6),"",Chart!B6)</f>
